--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_10_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_10_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8463.667218037488</v>
+        <v>1684269.77638946</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8463.667218037488</v>
+        <v>1684269.77638946</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14292.88478629176</v>
+        <v>866927.2267651064</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14292.88478629176</v>
+        <v>866927.2267651064</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035963732.600959</v>
+        <v>42194438.73358129</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9810.222349052736</v>
+        <v>1008704.048307661</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18695.31649412646</v>
+        <v>1858783.550532162</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27580.41063920017</v>
+        <v>2708863.052756664</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37408.0924922946</v>
+        <v>3507868.612130792</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47235.77434538901</v>
+        <v>4306874.17150492</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56220.69589533952</v>
+        <v>5156953.673729421</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65414.84449419208</v>
+        <v>6018286.198313785</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74552.44524199003</v>
+        <v>6868365.700538283</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84214.20899827732</v>
+        <v>7646682.788244037</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>93366.67479441839</v>
+        <v>8496379.773274714</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>102359.1416197198</v>
+        <v>9347960.785294041</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>111344.0631696703</v>
+        <v>10198040.28751855</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>120328.9847196208</v>
+        <v>11048119.78974306</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>129381.8256509033</v>
+        <v>11886046.41606011</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>139131.127801047</v>
+        <v>12664546.00036675</v>
       </c>
     </row>
   </sheetData>
@@ -27037,19 +27037,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>133</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>84</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,16 +27144,16 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
